--- a/spine影像統計.xlsx
+++ b/spine影像統計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>總數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>65、64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失：24、39、68、73、92、102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -487,6 +491,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spine影像統計.xlsx
+++ b/spine影像統計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>總數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11、27、29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,6 +53,26 @@
   </si>
   <si>
     <t>消失：24、39、68、73、92、102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失：24、39、68、92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註20181102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註20181025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗：29、46、64、89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問號：25、38</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,10 +447,13 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -452,10 +471,13 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -473,10 +495,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -491,8 +516,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/spine影像統計.xlsx
+++ b/spine影像統計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>總數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,19 +60,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>備註20181025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗：29、46、64、89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問號：25、38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>備註20181102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註20181025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失敗：29、46、64、89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>問號：25、38</t>
+    <t>備註20181106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脊椎31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半截6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗：64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒標記：37、43、46、59、66、67、71、76、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒對到五截：23、69、73、85、88、95、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23少半截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脊椎：73、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截到上一塊肋骨：69、85、88、95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,15 +466,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="13" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,13 +494,16 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -474,10 +524,13 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -498,10 +551,10 @@
         <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -516,12 +569,419 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>91</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>94</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>47</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>87</v>
+      </c>
+      <c r="D33">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>96</v>
+      </c>
+      <c r="D34">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>98</v>
+      </c>
+      <c r="D35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>99</v>
+      </c>
+      <c r="D36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>101</v>
+      </c>
+      <c r="D38">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>102</v>
+      </c>
+      <c r="D39">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/spine影像統計.xlsx
+++ b/spine影像統計.xlsx
@@ -469,12 +469,12 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">

--- a/spine影像統計.xlsx
+++ b/spine影像統計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>總數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,86 @@
   </si>
   <si>
     <t>截到上一塊肋骨：69、85、88、95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註20181114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找每節骨頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截取肋骨少半截 少最上面一截：23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有脊椎、多最下面一截：25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擷取肋骨多一截，L1、L4沒找到：26、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間多一格怪、少最下面一截：49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有脊椎、多最上面兩截、多一個怪：57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒標記但有6截：46、59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少最下面一截：3、29、40、60、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒標記但少中間一截：66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒標記但中間多兩格怪：67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有兩格：71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有脊椎、多最上面兩截：73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒標記但有5截：37、76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超怪：80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多最下面一截：4、18、27、83、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間多1~3格怪，但五個有找到：13、43、54、56、84、91、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK：2、5、6、9、11、13、19、21、35、38、42、53、61、64、65、72、74、75、77、78、79、81、82、89、90、93、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多兩格怪、少中間一截：94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擷取肋骨多一截，多上面1~2格：69、85、88、95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -477,7 +557,7 @@
     <col min="7" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +582,11 @@
       <c r="O1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -530,7 +613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -553,8 +636,11 @@
       <c r="K3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -568,8 +654,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>9</v>
       </c>
@@ -579,18 +668,27 @@
       <c r="O5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -603,8 +701,11 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -618,7 +719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -632,7 +733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -645,8 +746,11 @@
       <c r="O11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12</v>
       </c>
@@ -656,8 +760,11 @@
       <c r="D12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>14</v>
       </c>
@@ -667,8 +774,11 @@
       <c r="D13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>16</v>
       </c>
@@ -679,39 +789,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>22</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>25</v>
       </c>
       <c r="D17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>34</v>
       </c>
       <c r="D18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>35</v>
       </c>
@@ -719,31 +841,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>36</v>
       </c>
       <c r="D20">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>39</v>
       </c>
       <c r="D21">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>41</v>
       </c>
       <c r="D22">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>44</v>
       </c>
@@ -751,31 +882,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>45</v>
       </c>
       <c r="D24">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>47</v>
       </c>
       <c r="D25">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>51</v>
       </c>
       <c r="D26">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>52</v>
       </c>
@@ -783,7 +923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>57</v>
       </c>
@@ -791,7 +931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>58</v>
       </c>
@@ -799,7 +939,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>62</v>
       </c>
@@ -807,7 +947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>63</v>
       </c>
@@ -815,7 +955,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>73</v>
       </c>

--- a/spine影像統計.xlsx
+++ b/spine影像統計.xlsx
@@ -184,19 +184,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中間多1~3格怪，但五個有找到：13、43、54、56、84、91、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK：2、5、6、9、11、13、19、21、35、38、42、53、61、64、65、72、74、75、77、78、79、81、82、89、90、93、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多兩格怪、少中間一截：94</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>擷取肋骨多一截，多上面1~2格：69、85、88、95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK：2、5、6、9、11、15、19、21、35、38、42、53、61、64、72、74、75、77、78、79、81、82、89、90、93、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間多1~3格怪，但五個有找到：13、43、54、56、65、84、91、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="S11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="S13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">

--- a/spine影像統計.xlsx
+++ b/spine影像統計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>總數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,190 @@
   </si>
   <si>
     <t>中間多1~3格怪，但五個有找到：13、43、54、56、65、84、91、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、5、9、11、13、15、19、21、27、35、38、42、53、56、61、64、72、74、75、77、78、79、81、82、89、90、91、93、94、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少中間、少下面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少中間、多下面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、83、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少中間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多下面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少下面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29、40、49、60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多兩格怪 少下面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>54、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多一格怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超怪、少三節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超怪、一大格、少三格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>84、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒標記但正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37、43、76、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒標記、多一節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46、59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒標記、少一節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒標記、多一格怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>67、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少截</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多截一段、多上面1、少中間*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多截、多上面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>69、85、88、95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有脊椎、多最下面一截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有脊椎、多截、多上面多下面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有脊椎、多最上面兩截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找每節骨頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多一個怪、少中間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註20181127 std20 先去除疊合率高的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註20181127 std15 後除疊合率高的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40、49、60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、5、9、11、13、15、19、21、27、35、38、42、53、56、61、64、65、72、74、75、77、78、79、81、82、89、90、91、93、94、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37、43、76、67</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗QQ，上面被去除了RRR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,13 +403,32 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,8 +443,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -546,18 +754,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="13" width="9" customWidth="1"/>
+    <col min="25" max="25" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,8 +795,16 @@
       <c r="S1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -613,7 +831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -639,8 +857,14 @@
       <c r="S3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -657,8 +881,20 @@
       <c r="S4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>9</v>
       </c>
@@ -671,24 +907,60 @@
       <c r="S5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
         <v>22</v>
       </c>
       <c r="S6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O7" t="s">
         <v>21</v>
       </c>
       <c r="S7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -704,8 +976,20 @@
       <c r="S8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -718,8 +1002,20 @@
       <c r="O9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -732,8 +1028,12 @@
       <c r="O10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -749,8 +1049,20 @@
       <c r="S11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12</v>
       </c>
@@ -763,8 +1075,20 @@
       <c r="S12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>14</v>
       </c>
@@ -778,7 +1102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>16</v>
       </c>
@@ -788,8 +1112,20 @@
       <c r="D14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
@@ -799,8 +1135,20 @@
       <c r="S15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>22</v>
       </c>
@@ -810,8 +1158,16 @@
       <c r="S16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>25</v>
       </c>
@@ -821,8 +1177,16 @@
       <c r="S17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AC17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>34</v>
       </c>
@@ -832,16 +1196,40 @@
       <c r="S18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>35</v>
       </c>
       <c r="D19">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>36</v>
       </c>
@@ -851,8 +1239,16 @@
       <c r="S20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>39</v>
       </c>
@@ -862,8 +1258,16 @@
       <c r="S21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>41</v>
       </c>
@@ -873,16 +1277,36 @@
       <c r="S22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AC22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>44</v>
       </c>
       <c r="D23">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>45</v>
       </c>
@@ -892,8 +1316,20 @@
       <c r="S24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>47</v>
       </c>
@@ -903,8 +1339,16 @@
       <c r="S25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>51</v>
       </c>
@@ -914,32 +1358,76 @@
       <c r="S26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AC26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>52</v>
       </c>
       <c r="D27">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>57</v>
       </c>
       <c r="D28">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>57</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>58</v>
       </c>
       <c r="D29">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Y29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>73</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>62</v>
       </c>
@@ -947,7 +1435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>63</v>
       </c>
@@ -955,7 +1443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>73</v>
       </c>

--- a/spine影像統計.xlsx
+++ b/spine影像統計.xlsx
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AC1:AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/spine影像統計.xlsx
+++ b/spine影像統計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
   <si>
     <t>總數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,30 @@
   </si>
   <si>
     <t>失敗QQ，上面被去除了RRR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗QQ，上面被去除了RRR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註20181213 補齊中間及缺最下面的骨頭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、18、83</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>補的怪怪的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、3、5、6、9、11、13、15、19、21、27、35、38、42、49、53、56、61、64、65、72、74、75、77、78、79、81、82、89、90、91、93、94、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40、60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD60"/>
+  <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AC1:AD30"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -765,9 +789,10 @@
     <col min="7" max="13" width="9" customWidth="1"/>
     <col min="25" max="25" width="31.625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="33.875" customWidth="1"/>
+    <col min="33" max="33" width="35.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -803,8 +828,12 @@
         <v>87</v>
       </c>
       <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH1" s="1"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -831,7 +860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -863,8 +892,11 @@
       <c r="AC3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -893,8 +925,14 @@
       <c r="AD4" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>9</v>
       </c>
@@ -919,8 +957,14 @@
       <c r="AD5" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
         <v>22</v>
       </c>
@@ -939,8 +983,14 @@
       <c r="AD6" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O7" t="s">
         <v>21</v>
       </c>
@@ -959,8 +1009,10 @@
       <c r="AD7" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -988,8 +1040,10 @@
       <c r="AD8" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -1014,8 +1068,14 @@
       <c r="AD9" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1032,8 +1092,14 @@
       <c r="Z10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1062,7 +1128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12</v>
       </c>
@@ -1087,8 +1153,14 @@
       <c r="AD12" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>14</v>
       </c>
@@ -1101,8 +1173,14 @@
       <c r="S13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>16</v>
       </c>
@@ -1124,8 +1202,10 @@
       <c r="AD14" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
@@ -1147,8 +1227,14 @@
       <c r="AD15" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>22</v>
       </c>
@@ -1166,8 +1252,14 @@
       </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>25</v>
       </c>
@@ -1185,8 +1277,14 @@
       <c r="AD17" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>34</v>
       </c>
@@ -1208,8 +1306,10 @@
       <c r="AD18" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>35</v>
       </c>
@@ -1228,8 +1328,10 @@
       <c r="AD19" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>36</v>
       </c>
@@ -1247,8 +1349,14 @@
       </c>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>39</v>
       </c>
@@ -1266,8 +1374,14 @@
       </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>41</v>
       </c>
@@ -1285,8 +1399,14 @@
       <c r="AD22" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>44</v>
       </c>
@@ -1305,8 +1425,10 @@
       <c r="AD23" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>45</v>
       </c>
@@ -1328,8 +1450,14 @@
       <c r="AD24" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>47</v>
       </c>
@@ -1347,8 +1475,14 @@
       </c>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>51</v>
       </c>
@@ -1366,8 +1500,14 @@
       <c r="AD26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>52</v>
       </c>
@@ -1386,8 +1526,14 @@
       <c r="AD27" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>57</v>
       </c>
@@ -1407,7 +1553,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>58</v>
       </c>
@@ -1427,7 +1573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>62</v>
       </c>
@@ -1435,7 +1581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>63</v>
       </c>
@@ -1443,7 +1589,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>73</v>
       </c>

--- a/spine影像統計.xlsx
+++ b/spine影像統計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
   <si>
     <t>總數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,11 +400,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>40、60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒標記、補完怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多截一段、多上面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2、3、5、6、9、11、13、15、19、21、27、35、38、42、49、53、56、61、64、65、72、74、75、77、78、79、81、82、89、90、91、93、94、</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>40、60</t>
+    <t>備註20181221 補最下面0.9h格的位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、3、5、6、9、11、13、15、19、21、27、35、38、40、42、49、53、56、61、64、65、72、74、75、77、78、79、81、82、89、90、91、93、94、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH60"/>
+  <dimension ref="A1:AL60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AK29" sqref="AK29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -790,9 +810,10 @@
     <col min="25" max="25" width="31.625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="33.875" customWidth="1"/>
     <col min="33" max="33" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -832,8 +853,12 @@
         <v>93</v>
       </c>
       <c r="AH1" s="1"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL1" s="1"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -860,7 +885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -895,8 +920,11 @@
       <c r="AG3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -929,10 +957,16 @@
         <v>46</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>9</v>
       </c>
@@ -963,8 +997,14 @@
       <c r="AH5" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
         <v>22</v>
       </c>
@@ -987,10 +1027,16 @@
         <v>95</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O7" t="s">
         <v>21</v>
       </c>
@@ -1011,8 +1057,10 @@
       </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1042,8 +1090,10 @@
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -1074,8 +1124,14 @@
       <c r="AH9" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1098,8 +1154,14 @@
       <c r="AH10" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1128,7 +1190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12</v>
       </c>
@@ -1159,8 +1221,14 @@
       <c r="AH12" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>14</v>
       </c>
@@ -1179,8 +1247,14 @@
       <c r="AH13" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>16</v>
       </c>
@@ -1204,8 +1278,10 @@
       </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
@@ -1233,8 +1309,14 @@
       <c r="AH15" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>22</v>
       </c>
@@ -1258,8 +1340,14 @@
       <c r="AH16" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>25</v>
       </c>
@@ -1278,13 +1366,19 @@
         <v>90</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>34</v>
       </c>
@@ -1308,8 +1402,10 @@
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>35</v>
       </c>
@@ -1330,8 +1426,10 @@
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>36</v>
       </c>
@@ -1355,8 +1453,14 @@
       <c r="AH20" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>39</v>
       </c>
@@ -1375,13 +1479,19 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AG21" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AH21" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>41</v>
       </c>
@@ -1405,8 +1515,14 @@
       <c r="AH22" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>44</v>
       </c>
@@ -1427,8 +1543,10 @@
       </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>45</v>
       </c>
@@ -1456,8 +1574,14 @@
       <c r="AH24" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>47</v>
       </c>
@@ -1481,8 +1605,14 @@
       <c r="AH25" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>51</v>
       </c>
@@ -1506,8 +1636,14 @@
       <c r="AH26" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>52</v>
       </c>
@@ -1532,8 +1668,14 @@
       <c r="AH27" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AK27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>57</v>
       </c>
@@ -1553,7 +1695,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>58</v>
       </c>
@@ -1573,7 +1715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>62</v>
       </c>
@@ -1581,7 +1723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>63</v>
       </c>
@@ -1589,7 +1731,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>73</v>
       </c>
